--- a/sogno/utils/aggregator_info.xlsx
+++ b/sogno/utils/aggregator_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aytugy\Desktop\master\evrich\sogno\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aytugy\Desktop\workspace\evrich\sogno\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055C082F-3237-4099-9992-8C62CE74BF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF0A52-EED5-4D92-ADED-E261F05665D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="socket_info" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>cu_id</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t>CC03_c</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -424,12 +430,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I8" sqref="I8:J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -440,9 +446,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -451,7 +457,7 @@
         <v>9001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -462,9 +468,9 @@
         <v>9002</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -473,7 +479,7 @@
         <v>9003</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -484,7 +490,7 @@
         <v>9004</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -509,12 +515,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -542,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -556,7 +562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -584,12 +590,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -617,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -631,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -658,12 +664,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -677,7 +683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -691,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -705,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>

--- a/sogno/utils/aggregator_info.xlsx
+++ b/sogno/utils/aggregator_info.xlsx
@@ -1,29 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aytugy\Desktop\workspace\evrich\sogno\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aytugy\Desktop\workspace\evrich\external\event_manager\data_handling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCF0A52-EED5-4D92-ADED-E261F05665D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE693AB-9215-483A-9FB5-31E5BF41421A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="socket_info" sheetId="13" r:id="rId1"/>
-    <sheet name="1" sheetId="9" r:id="rId2"/>
-    <sheet name="2" sheetId="4" r:id="rId3"/>
-    <sheet name="3" sheetId="11" r:id="rId4"/>
+    <sheet name="SocketInfo" sheetId="13" r:id="rId1"/>
+    <sheet name="Cluster1" sheetId="9" r:id="rId2"/>
+    <sheet name="Cluster2" sheetId="4" r:id="rId3"/>
+    <sheet name="Capacity1" sheetId="16" r:id="rId4"/>
+    <sheet name="Capacity2" sheetId="17" r:id="rId5"/>
+    <sheet name="Fleet" sheetId="18" r:id="rId6"/>
+    <sheet name="ServiceFleet" sheetId="14" r:id="rId7"/>
+    <sheet name="Price" sheetId="15" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Fleet!$A$1:$J$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">ServiceFleet!$A$1:$M$7</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>cu_id</t>
   </si>
@@ -55,9 +63,6 @@
     <t>CC01_b</t>
   </si>
   <si>
-    <t>CC01_c</t>
-  </si>
-  <si>
     <t>CC02_a</t>
   </si>
   <si>
@@ -67,26 +72,104 @@
     <t>CC02_c</t>
   </si>
   <si>
-    <t>CC03_a</t>
-  </si>
-  <si>
-    <t>CC03_b</t>
-  </si>
-  <si>
-    <t>CC03_c</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>TimeStep</t>
+  </si>
+  <si>
+    <t>Price (per/kWh)</t>
+  </si>
+  <si>
+    <t>LB (kW)</t>
+  </si>
+  <si>
+    <t>UB (kW)</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>start_location</t>
+  </si>
+  <si>
+    <t>sojourn_location_center</t>
+  </si>
+  <si>
+    <t>sojourn_location_radius</t>
+  </si>
+  <si>
+    <t>sojourn_period</t>
+  </si>
+  <si>
+    <t>vehicle_id</t>
+  </si>
+  <si>
+    <t>vehicle_model</t>
+  </si>
+  <si>
+    <t>ev001</t>
+  </si>
+  <si>
+    <t>ev002</t>
+  </si>
+  <si>
+    <t>model1</t>
+  </si>
+  <si>
+    <t>model2</t>
+  </si>
+  <si>
+    <t>loc0</t>
+  </si>
+  <si>
+    <t>locX</t>
+  </si>
+  <si>
+    <t>battery_capacity_kWh</t>
+  </si>
+  <si>
+    <t>p_max_ch_kW</t>
+  </si>
+  <si>
+    <t>p_max_ds_kW</t>
+  </si>
+  <si>
+    <t>start_SoC</t>
+  </si>
+  <si>
+    <t>demand_target_SoC</t>
+  </si>
+  <si>
+    <t>v2g_allowance_kWh</t>
+  </si>
+  <si>
+    <t>real_arrival_time</t>
+  </si>
+  <si>
+    <t>real_arrival_SoC</t>
+  </si>
+  <si>
+    <t>real_departure_time</t>
+  </si>
+  <si>
+    <t>target_cluster</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>ev003</t>
+  </si>
+  <si>
+    <t>ev004</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +183,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -109,7 +220,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,12 +228,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B90A685-6DE2-42D0-8D24-8AE5CC965569}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -446,9 +591,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -457,7 +602,7 @@
         <v>9001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -466,39 +611,6 @@
       </c>
       <c r="C3">
         <v>9002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>9003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>9004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>9005</v>
       </c>
     </row>
   </sheetData>
@@ -509,18 +621,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -548,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -559,20 +671,6 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
         <v>1</v>
       </c>
     </row>
@@ -590,12 +688,12 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,9 +707,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -623,9 +721,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -637,9 +735,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -657,75 +755,738 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001E9F07-C842-4B56-A834-7D41FCD36F1E}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>14</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44569.291666261583</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>-22</v>
       </c>
       <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44569.333332870367</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>-22</v>
       </c>
       <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44569.374999479172</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>-22</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44569.416666087956</v>
+      </c>
+      <c r="B5">
+        <v>-22</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44569.458332696762</v>
+      </c>
+      <c r="B6">
+        <v>-22</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44569.5</v>
+      </c>
+      <c r="B7">
+        <v>-22</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA1566F-D935-483B-B59F-490B4546E7C8}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44569.291666261583</v>
+      </c>
+      <c r="B2">
+        <v>-22</v>
+      </c>
+      <c r="C2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44569.333332870367</v>
+      </c>
+      <c r="B3">
+        <v>-22</v>
+      </c>
+      <c r="C3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44569.374999479172</v>
+      </c>
+      <c r="B4">
+        <v>-22</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44569.416666087956</v>
+      </c>
+      <c r="B5">
+        <v>-22</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44569.458332696762</v>
+      </c>
+      <c r="B6">
+        <v>-22</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44569.5</v>
+      </c>
+      <c r="B7">
+        <v>-22</v>
+      </c>
+      <c r="C7">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ABE7B72-C3A4-4DE2-B0A1-44DCDC3EB696}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6">
+        <v>40</v>
+      </c>
+      <c r="D2" s="9">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1641627900</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1641635100</v>
+      </c>
+      <c r="I2" s="9">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9">
+        <v>11</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1641627900</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1641635100</v>
+      </c>
+      <c r="I3" s="9">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M7" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M13">
+      <sortCondition ref="E1:E13"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6671D2DB-01EB-4F2E-8DEF-8AE3CE66AA40}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6">
+        <v>40</v>
+      </c>
+      <c r="D2" s="9">
+        <v>11</v>
+      </c>
+      <c r="E2" s="9">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1641625200</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="6">
+        <v>200</v>
+      </c>
+      <c r="K2" s="6">
+        <v>3600</v>
+      </c>
+      <c r="L2" s="9">
+        <v>1</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="6">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9">
+        <v>55</v>
+      </c>
+      <c r="E3" s="9">
+        <v>55</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1641627900</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="6">
+        <v>200</v>
+      </c>
+      <c r="K3" s="6">
+        <v>3600</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="M3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M7" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M13">
+      <sortCondition ref="E1:E13"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068D87B7-66F2-4C20-9054-5A11E849B231}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>44569.291666261583</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>44569.333332870367</v>
+      </c>
+      <c r="B3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44569.374999479172</v>
+      </c>
+      <c r="B4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44569.416666087956</v>
+      </c>
+      <c r="B5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44569.458332696762</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44569.5</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>